--- a/data/foerderungen.xlsx
+++ b/data/foerderungen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="113">
   <si>
     <t>id</t>
   </si>
@@ -283,49 +283,67 @@
     <t>Das kreiseigene Förderprogramm sah Zuschüsse von bis zu 75 % für Ladeinfrastruktur vor, aber der Fördertopf 2025 ist erschöpft; ab 2025 nur noch öffentliche Ladeinfrastruktur förderfähig</t>
   </si>
   <si>
+    <t>https://www.bra.nrw.de/energie-bergbau/foerderprogramme-fuer-klimaschutz-und-energiewende/foerderbereiche/lademoeglichkeiten/foerderung-von-nicht-oeffentlich-zugaenglicher-ladeinfrastruktur-mietgebaeuden-und</t>
+  </si>
+  <si>
+    <t>https://vm.baden-wuerttemberg.de/de/politik-zukunft/elektromobilitaet/foerderung-elektromobilitaet/ladeinfrastrukturfoerderung-chargebw</t>
+  </si>
+  <si>
+    <t>https://stadt.muenchen.de/service/info/sachgebiet-klimaneutrale-antriebe/10215341/</t>
+  </si>
+  <si>
+    <t>https://www.stuttgart.de/leben/umwelt/energie/foerderprogramme/privates-laden</t>
+  </si>
+  <si>
+    <t>https://www.duesseldorf.de/verkehrsmanagement/mobilitaet-neu-denken/elektromobilitaet/private-nutzer/foerderprogramme</t>
+  </si>
+  <si>
+    <t>https://www.limburg.de/gemeinsammehrbewegen</t>
+  </si>
+  <si>
+    <t>https://landau.klimaschutzportal.rlp.de/fileadmin/redaktion/kipki/f%C3%B6rderrichtlinie_wallboxen_erh%C3%B6ht_unterschrieben.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gemeinde-gruenwald.de/media/www.gemeinde-gruenwald.de/org/med_1107/1890_richtlinien_foerderprogramm_umweltschutz_2023-09-15_pre-final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mainzerenergie.de/elektromobilitaet/foerderung</t>
+  </si>
+  <si>
+    <t>https://www.stadtwerke-konstanz.de/parken-laden/aktuelles/ladeinfrastruktur-foerderung/</t>
+  </si>
+  <si>
+    <t>https://www.stadtwerke-dachau.de/tarife-angebote/e-mobilitaet/wallboxen-zum-aktionspreis</t>
+  </si>
+  <si>
+    <t>https://www.gwh-hoexter.de/foerderung/</t>
+  </si>
+  <si>
+    <t>https://www.heidelberg.de/umweltfreundlichmobil</t>
+  </si>
+  <si>
+    <t>https://www.segeberg.de/Lebenslagen/Klima-Wirtschaft-Verkehr/E-Autos/</t>
+  </si>
+  <si>
     <t>https://www.elektromobilitaet.nrw/foerderprogramme/nicht-oeffentlich-zugaengliche-ladeinfrastruktur</t>
   </si>
   <si>
-    <t>https://vm.baden-wuerttemberg.de/de/mobilitaet/elektromobilitaet/foerderprogramme/chargebw</t>
-  </si>
-  <si>
-    <t>https://stadt.muenchen.de/infos/ladestation-foerderung.html</t>
-  </si>
-  <si>
-    <t>https://www.stuttgart.de/leben/mobilitaet/privates-laden.php</t>
-  </si>
-  <si>
-    <t>https://www.duesseldorf.de/verkehrsmanagement/mobilitaet-neu-denken/elektromobilitaet/private-nutzer/foerderprogramme</t>
-  </si>
-  <si>
-    <t>https://www.limburg.de/gemeinsammehrbewegen</t>
+    <t>https://www.l-bank.de/produkte/finanzhilfen/ladeinfrastruktur-fur-elektrofahrzeuge-charge-at-bw.html</t>
+  </si>
+  <si>
+    <t>https://stadt.muenchen.de/infos/foerderprogramm-muenchen-elektromobilitaet.html</t>
+  </si>
+  <si>
+    <t>https://www.limburg.de/Rathaus-Leben/Aktuelles/index.php?NavID=3252.62&amp;object=frm%2C3252.114.1</t>
   </si>
   <si>
     <t>https://landau.klimaschutzportal.rlp.de/portal/foerderung/wallboxen-ladesaeulen</t>
   </si>
   <si>
-    <t>https://www.gemeinde-gruenwald.de/media/www.gemeinde-gruenwald.de/org/med_1107/1890_richtlinien_foerderprogramm_umweltschutz_2023-09-15_pre-final.pdf</t>
-  </si>
-  <si>
-    <t>https://www.mainzerenergie.de/elektromobilitaet/foerderung</t>
-  </si>
-  <si>
-    <t>https://www.stadtwerke-konstanz.de/parken-laden/aktuelles/ladeinfrastruktur-foerderung/</t>
-  </si>
-  <si>
-    <t>https://www.stadtwerke-dachau.de/tarife-angebote/e-mobilitaet/wallboxen-zum-aktionspreis</t>
-  </si>
-  <si>
-    <t>https://www.gwh-hoexter.de/foerderung/</t>
-  </si>
-  <si>
-    <t>https://www.heidelberg.de/hd/HD/Leben/Foerderprogramm Umweltfreundlich mobil.html</t>
-  </si>
-  <si>
-    <t>https://www.segeberg.de/Lebenslagen/Klima-Wirtschaft-Verkehr/E-Autos/</t>
-  </si>
-  <si>
-    <t>https://www.duesseldorf.de/verkehrsmanagement/mobilitaet-neu-denken/elektromobilitaet/private-nutzer/foerderprogram</t>
+    <t>https://www.gemeinde-gruenwald.de/rathaus/umweltamt/foerderungen/iii-solare-anlagen-und-ladeinfrastruktur/4-ladestationen-11-kw/1220..html</t>
+  </si>
+  <si>
+    <t>https://www.mainzerenergie.de/-/media/project/mainzer-stadtwerke/shared/dokumente/energie/e-mobilitaet/foerderantrag_e-mobilitaet.pdf</t>
   </si>
   <si>
     <t>2025-10-31</t>
@@ -790,10 +808,10 @@
         <v>89</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="N2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -831,10 +849,10 @@
         <v>90</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="N3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -872,10 +890,10 @@
         <v>91</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="N4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -916,7 +934,7 @@
         <v>92</v>
       </c>
       <c r="N5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -954,10 +972,10 @@
         <v>93</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="N6" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -995,10 +1013,10 @@
         <v>94</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="N7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1036,10 +1054,10 @@
         <v>95</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1077,10 +1095,10 @@
         <v>96</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1118,10 +1136,10 @@
         <v>96</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1159,10 +1177,10 @@
         <v>97</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="N11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1200,10 +1218,10 @@
         <v>97</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="N12" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1244,7 +1262,7 @@
         <v>98</v>
       </c>
       <c r="N13" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1285,7 +1303,7 @@
         <v>99</v>
       </c>
       <c r="N14" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1326,7 +1344,7 @@
         <v>100</v>
       </c>
       <c r="N15" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1367,7 +1385,7 @@
         <v>101</v>
       </c>
       <c r="N16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1405,7 +1423,7 @@
         <v>102</v>
       </c>
       <c r="N17" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
